--- a/Programación.xlsx
+++ b/Programación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\OneDrive\Documentos\GitHub\Programacion-mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17DAF6-CB60-44DE-8613-B71176A755D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F14367-9C66-4508-AB31-3C1F3CE34C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>LUNES</t>
   </si>
@@ -52,13 +52,79 @@
   </si>
   <si>
     <t>HORA</t>
+  </si>
+  <si>
+    <t>6:00 - 7:00 a. m.</t>
+  </si>
+  <si>
+    <t>7:00 - 8:00 a. m.</t>
+  </si>
+  <si>
+    <t>8:00 - 9:00 a. m.</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00 a. m.</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00 a. m.</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00 m.</t>
+  </si>
+  <si>
+    <t>1: 00 12:00 p. m.</t>
+  </si>
+  <si>
+    <t>1:00 - 2:00 p. m.</t>
+  </si>
+  <si>
+    <t>2:00 - 3:00 p. m.</t>
+  </si>
+  <si>
+    <t>3:00 - 4:00 p. m.</t>
+  </si>
+  <si>
+    <t>4:00 - 5:00 p. m.</t>
+  </si>
+  <si>
+    <t>5:00 - 6:00 p. m.</t>
+  </si>
+  <si>
+    <t>6:00 - 7:00 p. m.</t>
+  </si>
+  <si>
+    <t>7:00 - 8:00 p. m.</t>
+  </si>
+  <si>
+    <t>Informática II</t>
+  </si>
+  <si>
+    <t>Álgebra y trigonometría</t>
+  </si>
+  <si>
+    <t>Cálculo diferencial</t>
+  </si>
+  <si>
+    <t>Inglés IV</t>
+  </si>
+  <si>
+    <t>Cálculo diferencia</t>
+  </si>
+  <si>
+    <t>Matemáticas discretas</t>
+  </si>
+  <si>
+    <t>Laboratorio - informática II</t>
+  </si>
+  <si>
+    <t>Álgebra y trigonometria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +148,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF05646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FC2E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEA840"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD9239"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,21 +207,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -126,6 +251,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD9239"/>
+      <color rgb="FFFD7F17"/>
+      <color rgb="FFEEA840"/>
+      <color rgb="FFEDC041"/>
+      <color rgb="FFEDB26E"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FF3FC2E1"/>
+      <color rgb="FFF05646"/>
+      <color rgb="FF20AED0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -400,137 +538,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>0.25</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0.29166666666666669</v>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>0.58333333333333337</v>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>0.625</v>
-      </c>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0.75</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Programación.xlsx
+++ b/Programación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\OneDrive\Documentos\GitHub\Programacion-mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17DAF6-CB60-44DE-8613-B71176A755D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64278825-CE57-469E-BD8E-255565DDF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>LUNES</t>
   </si>
@@ -52,13 +52,94 @@
   </si>
   <si>
     <t>HORA</t>
+  </si>
+  <si>
+    <t>6:00 - 7:00 a. m.</t>
+  </si>
+  <si>
+    <t>7:00 - 8:00 a. m.</t>
+  </si>
+  <si>
+    <t>8:00 - 9:00 a. m.</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00 a. m.</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00 a. m.</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00 m.</t>
+  </si>
+  <si>
+    <t>1: 00 12:00 p. m.</t>
+  </si>
+  <si>
+    <t>1:00 - 2:00 p. m.</t>
+  </si>
+  <si>
+    <t>2:00 - 3:00 p. m.</t>
+  </si>
+  <si>
+    <t>3:00 - 4:00 p. m.</t>
+  </si>
+  <si>
+    <t>4:00 - 5:00 p. m.</t>
+  </si>
+  <si>
+    <t>5:00 - 6:00 p. m.</t>
+  </si>
+  <si>
+    <t>6:00 - 7:00 p. m.</t>
+  </si>
+  <si>
+    <t>7:00 - 8:00 p. m.</t>
+  </si>
+  <si>
+    <t>Informática II</t>
+  </si>
+  <si>
+    <t>Álgebra y trigonometría</t>
+  </si>
+  <si>
+    <t>Cálculo diferencial</t>
+  </si>
+  <si>
+    <t>Inglés IV</t>
+  </si>
+  <si>
+    <t>Cálculo diferencia</t>
+  </si>
+  <si>
+    <t>Matemáticas discretas</t>
+  </si>
+  <si>
+    <t>Laboratorio - informática II</t>
+  </si>
+  <si>
+    <t>Álgebra y trigonometria</t>
+  </si>
+  <si>
+    <t>Sesión de estudio 1: álgebra</t>
+  </si>
+  <si>
+    <t>Sesión de estudio 2: cálculo</t>
+  </si>
+  <si>
+    <t>Sesión de estudio 3: informática</t>
+  </si>
+  <si>
+    <t>Sesión de estudio: matemáticas</t>
+  </si>
+  <si>
+    <t>Trabajo en proyecto de semillero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +163,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF05646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FC2E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEA840"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD9239"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,22 +236,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -126,6 +280,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD9239"/>
+      <color rgb="FFFD7F17"/>
+      <color rgb="FFEEA840"/>
+      <color rgb="FFEDC041"/>
+      <color rgb="FFEDB26E"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FF3FC2E1"/>
+      <color rgb="FFF05646"/>
+      <color rgb="FF20AED0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -400,137 +567,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>0.25</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0.29166666666666669</v>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>0.5</v>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>0.58333333333333337</v>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>0.625</v>
-      </c>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>0.66666666666666663</v>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0.75</v>
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="25">
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Programación.xlsx
+++ b/Programación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\OneDrive\Documentos\GitHub\Programacion-mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64278825-CE57-469E-BD8E-255565DDF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700E5B4-7A76-4095-8BD4-DA37E731D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>LUNES</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Inglés IV</t>
-  </si>
-  <si>
-    <t>Cálculo diferencia</t>
   </si>
   <si>
     <t>Matemáticas discretas</t>
@@ -569,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +632,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -656,16 +653,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,14 +682,14 @@
         <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11"/>
       <c r="H9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,18 +707,18 @@
         <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,18 +737,18 @@
         <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4"/>
       <c r="H13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,20 +767,20 @@
         <v>21</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/Programación.xlsx
+++ b/Programación.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\OneDrive\Documentos\GitHub\Programacion-mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700E5B4-7A76-4095-8BD4-DA37E731D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46488E24-C003-493B-A639-B0AF02CD053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calendario" sheetId="1" r:id="rId1"/>
+    <sheet name="13 - 19 feb." sheetId="1" r:id="rId1"/>
+    <sheet name="20 - 26 feb." sheetId="5" r:id="rId2"/>
+    <sheet name="27 feb - 5 mar." sheetId="6" r:id="rId3"/>
+    <sheet name="6 - 12 mar." sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="35">
   <si>
     <t>LUNES</t>
   </si>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,4 +828,799 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC03D006-4ABE-4ABA-B258-6E8E56662512}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CAA5B2-A2D7-4F28-887A-106EC2D21AC6}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C98EC4B-FFEE-4EFE-A7B9-F9C2E2E86863}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Programación.xlsx
+++ b/Programación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\OneDrive\Documentos\GitHub\Programacion-mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46488E24-C003-493B-A639-B0AF02CD053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93684DE6-73F4-4847-8A29-FBD652335DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13 - 19 feb." sheetId="1" r:id="rId1"/>
@@ -27,8 +27,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sergio</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{C765EECA-DEE1-4E8E-AF5B-6DC25F2BF2E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sergio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Entrega de práctica 1 en horario de clase.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sergio</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E1AC48B4-CC4F-47D3-8B5F-8A209CCA154E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sergio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Parcial 1 en horario de clase.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="36">
   <si>
     <t>LUNES</t>
   </si>
@@ -133,13 +202,16 @@
   </si>
   <si>
     <t>Trabajo en proyecto de semillero</t>
+  </si>
+  <si>
+    <t>Quiz 1 - álgebra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +251,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4FA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -236,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +365,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,6 +376,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4FA7"/>
+      <color rgb="FFFF3399"/>
       <color rgb="FFFD9239"/>
       <color rgb="FFFD7F17"/>
       <color rgb="FFEEA840"/>
@@ -290,7 +386,6 @@
       <color rgb="FF66FF66"/>
       <color rgb="FF3FC2E1"/>
       <color rgb="FFF05646"/>
-      <color rgb="FF20AED0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -569,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +857,9 @@
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC03D006-4ABE-4ABA-B258-6E8E56662512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC03D006-4ABE-4ABA-B258-6E8E56662512}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,15 +1189,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CAA5B2-A2D7-4F28-887A-106EC2D21AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CAA5B2-A2D7-4F28-887A-106EC2D21AC6}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,6 +1455,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1364,7 +1463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C98EC4B-FFEE-4EFE-A7B9-F9C2E2E86863}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
